--- a/biology/Médecine/Franz_Kaspar_Hesselbach/Franz_Kaspar_Hesselbach.xlsx
+++ b/biology/Médecine/Franz_Kaspar_Hesselbach/Franz_Kaspar_Hesselbach.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Franz Kaspar Hesselbach (né le 27 janvier 1759 à Hammelburg – mort le 24 juillet 1816) et un médecin et anatomiste allemand. Il est surtout connu pour ses travaux sur l'opération d'hernies. Il est le premier à avoir décrit le Fascia cribriformis (également nommé fascia d'Hesselbach), le ligament interfovéolaire (en) (ligament d'Hesselbach) et le triangle inguinal (en) (triangle d'Hesselbach).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Étudiant de Carl Caspar von Siebold (1736–1807) à l'université de Wurtzbourg, Hesselbach y sera également professeur. Parmi ses étudiants notables, on compte Konrad Johann Martin Langenbeck (1776–1851). Son fils, Adam Kaspar Hesselbach (1788–1856), est également un médecin reconnu.
 </t>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) Anatomisch-chirurgische Abhandlung über den Ursprung der Leistenbrüche. Würzburg, Baumgärtner, 1806.
 (de) Neueste anatomisch-pathologische Untersuchungen über den Ursprung und das Fortschreiten der Leisten- und Schenkelbrüche. Würzburg, Staheliano, 1814.</t>
@@ -573,7 +589,9 @@
           <t>Literatur</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) Ernst Julius Gurlt, « Hesselbach, Franz Kaspar », dans Allgemeine Deutsche Biographie (ADB), vol. 12, Leipzig, Duncker &amp; Humblot, 1880, p. 312-313
 Helmut Lermann, Die Prosektoren Hesselbach. Franz Caspar Hesselbach und Adam Kaspar Hesselbach als Prosektoren der Würzburger Anatomischen Anstalt. Medizinische Dissertation. Institut für Geschichte der Medizin der Universität Würzburg, 1962.
